--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.012721-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.012721-1.xlsx_with_dialog_acts.xlsx
@@ -889,12 +889,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2105,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2375,12 +2375,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2489,12 +2489,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2603,12 +2603,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2717,12 +2717,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2945,12 +2945,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3975,12 +3975,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4967,12 +4967,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5119,12 +5119,12 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5347,12 +5347,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5385,12 +5385,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5613,12 +5613,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5803,12 +5803,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6183,12 +6183,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6487,12 +6487,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7133,12 +7133,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7285,12 +7285,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7513,12 +7513,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7551,12 +7551,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7589,12 +7589,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7817,12 +7817,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7855,12 +7855,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9189,12 +9189,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9417,12 +9417,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9721,12 +9721,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9797,12 +9797,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10067,12 +10067,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10333,12 +10333,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10409,12 +10409,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10599,12 +10599,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10789,12 +10789,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11135,12 +11135,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11211,12 +11211,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11287,12 +11287,12 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11363,12 +11363,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11439,12 +11439,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11591,12 +11591,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11895,12 +11895,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11933,12 +11933,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12389,12 +12389,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13225,12 +13225,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13453,12 +13453,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13757,12 +13757,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14027,12 +14027,12 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14103,12 +14103,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14179,12 +14179,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14369,12 +14369,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14897,12 +14897,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14973,12 +14973,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15429,12 +15429,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15543,12 +15543,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15847,12 +15847,12 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16683,12 +16683,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16835,12 +16835,12 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16911,12 +16911,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16987,12 +16987,12 @@
       <c r="H435" t="inlineStr"/>
       <c r="I435" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17139,12 +17139,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17177,12 +17177,12 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17371,12 +17371,12 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18169,12 +18169,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18435,12 +18435,12 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18701,12 +18701,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18739,12 +18739,12 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18777,12 +18777,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18815,12 +18815,12 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18853,12 +18853,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19043,12 +19043,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19119,12 +19119,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19271,12 +19271,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20073,12 +20073,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20339,12 +20339,12 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21939,12 +21939,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22129,12 +22129,12 @@
       <c r="H570" t="inlineStr"/>
       <c r="I570" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22471,12 +22471,12 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22623,12 +22623,12 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22889,12 +22889,12 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22927,12 +22927,12 @@
       <c r="H591" t="inlineStr"/>
       <c r="I591" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23421,12 +23421,12 @@
       </c>
       <c r="I604" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23497,12 +23497,12 @@
       <c r="H606" t="inlineStr"/>
       <c r="I606" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24219,12 +24219,12 @@
       <c r="H625" t="inlineStr"/>
       <c r="I625" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24333,12 +24333,12 @@
       <c r="H628" t="inlineStr"/>
       <c r="I628" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24409,12 +24409,12 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24523,12 +24523,12 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24561,12 +24561,12 @@
       <c r="H634" t="inlineStr"/>
       <c r="I634" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
